--- a/test/files/autofilter.xlsx
+++ b/test/files/autofilter.xlsx
@@ -10,6 +10,10 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">sheet1!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="1">sheet2!$A$1:$J$12</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -943,7 +947,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J12"/>
+  <autoFilter ref="$A$1:$J$12"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>

--- a/test/files/autofilter.xlsx
+++ b/test/files/autofilter.xlsx
@@ -11,8 +11,8 @@
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">sheet1!$A$1:$J$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="1">sheet2!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'sheet1'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="1">'sheet2'!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>

--- a/test/files/autofilter.xlsx
+++ b/test/files/autofilter.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="NEURO RAD" sheetId="1" r:id="rId1"/>
+    <sheet name="NEURO ONC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'sheet1'!$A$1:$J$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="1">'sheet2'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="0">'NEURO RAD'!$A$1:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1" localSheetId="1">'NEURO ONC'!$A$1:$J$12</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>

--- a/test/files/autofilter.xlsx
+++ b/test/files/autofilter.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
